--- a/InputFiles/TC11_CDS_Filter_Study-UniversityofTexas.xlsx
+++ b/InputFiles/TC11_CDS_Filter_Study-UniversityofTexas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\CDS Automation\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97B8C685-4325-487F-9EF4-D5E416790498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D1FD98-B10C-4019-8FE4-E2AA7E69D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -117,7 +117,7 @@
  coalesce(p.participant_id,'') as `Participant ID`,
  coalesce(s.study_name, '') as `Study Name`,
  coalesce(s.phs_accession,'') as `Accession`,
- coalesce(tumor,'') as `Tumor`,
+coalesce(samp.sample_tumor_status,'') as `Tumor`,
 coalesce(samp.sample_type,'') as `Analyte Type`
 ORDER By samp.sample_id LIMIT 100</t>
   </si>
@@ -502,7 +502,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputFiles/TC11_CDS_Filter_Study-UniversityofTexas.xlsx
+++ b/InputFiles/TC11_CDS_Filter_Study-UniversityofTexas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\CDS Automation\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0717new\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D1FD98-B10C-4019-8FE4-E2AA7E69D517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D8E26-04E4-409A-A360-1A21431ABBE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>TabName</t>
   </si>
   <si>
-    <t>CasesTab</t>
-  </si>
-  <si>
     <t>SamplesTab</t>
   </si>
   <si>
@@ -61,23 +58,6 @@
   </si>
   <si>
     <t>TC11_CDS_Filter_Study-UniversityofTexas_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>MATCH (s:study)&lt;--(p:participant)
-OPTIONAL MATCH (p)&lt;--(samp:sample)MATCH (s:study)&lt;--(p:participant)
-OPTIONAL MATCH (p)&lt;--(samp:sample)
-OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
-OPTIONAL MATCH (samp)&lt;--(f:file)
-WITH DISTINCT samp,diag,s,p,f
-WHERE s.study_name in ["University of Texas PDX Development and Trial Center Grant"]
-RETURN
-    count(distinct s) AS Studies,
-    count(distinct p) AS Participants,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Files`
-    count(distinct p) AS Participants,
-    count(distinct samp) AS Samples,
-    count(distinct f) AS `Files`</t>
   </si>
   <si>
     <t>MATCH (s:study)&lt;--(p:participant)
@@ -120,6 +100,23 @@
 coalesce(samp.sample_tumor_status,'') as `Tumor`,
 coalesce(samp.sample_type,'') as `Analyte Type`
 ORDER By samp.sample_id LIMIT 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATCH (s:study)&lt;--(p:participant)
+OPTIONAL MATCH (p)&lt;--(samp:sample)MATCH (s:study)&lt;--(p:participant)
+OPTIONAL MATCH (p)&lt;--(samp:sample)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+OPTIONAL MATCH (samp)&lt;--(f:file)
+WITH DISTINCT samp,diag,s,p,f
+WHERE s.study_name in ["University of Texas PDX Development and Trial Center Grant"]
+RETURN
+    count(distinct s) AS Studies,
+    count(distinct p) AS Participants,
+    count(distinct samp) AS Samples,
+    count(distinct f) AS `Files`   </t>
+  </si>
+  <si>
+    <t>ParticipantsTab</t>
   </si>
 </sst>
 </file>
@@ -148,7 +145,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -178,9 +175,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -502,92 +497,93 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52" style="1" customWidth="1"/>
+    <col min="5" max="5" width="73.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="213.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="222.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="209.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="252" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
